--- a/pred_ohlcv/54_21/2019-10-28 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ELF ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74689.45971960784</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>122876.5479196078</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>126721.1517196078</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>245346.9901458215</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>261925.7391458215</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>230180.4037458215</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>187449.4457458215</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>199848.9309458215</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>164269.7063458214</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>187845.0909458214</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>717743.3901307019</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>698738.3901307019</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>694659.7153307019</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>708555.9753307019</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>723404.2767307019</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>729644.766330702</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>793692.438730702</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>791165.925730702</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>770515.961030702</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>769665.957030702</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>732655.414130702</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74689.45971960784</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>74306.06071960783</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>245346.9901458215</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>261925.7391458215</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>230180.4037458215</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>187449.4457458215</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>199848.9309458215</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>164269.7063458214</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>187845.0909458214</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>383993.6537821851</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>403393.6537821851</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>403393.6537821851</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>380655.2444821851</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>400174.645982185</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>390343.310182185</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>397951.761982185</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>397951.761982185</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>397701.721982185</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>707363.199430702</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>704363.199430702</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>710908.159130702</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>708268.159130702</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>717743.3901307019</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>698738.3901307019</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>694659.7153307019</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>686869.459330702</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>682786.884530702</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>696176.221530702</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>708555.9753307019</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>723404.2767307019</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>729644.766330702</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>793692.438730702</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>791165.925730702</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>769987.141630702</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>757401.263630702</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
